--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="8.1.852.35783"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -326,24 +326,11 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
       <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="10"/>
     </font>
   </fonts>
   <fills count="33">
@@ -735,10 +722,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -747,10 +734,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -759,10 +746,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -771,10 +758,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -783,10 +770,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -795,16 +782,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1169,117 +1156,41 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B9"/>
+    <hyperlink r:id="rId1" ref="B4"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1120,77 +1120,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:GS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="GQ1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="GW9" sqref="GW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:201">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="0">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="0">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="0">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="0">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="0">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="0">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="0">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="0">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="0">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="0">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="0">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="0">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="0">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="0">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="0">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="0">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="0">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="0">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="0">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="0">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="0">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="0">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="0">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="0">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="0">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="0">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="0">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="0">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="0">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="0">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="0">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="0">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="0">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="0">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="0">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="0">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="0">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="0">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="0">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="0">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="0">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="0">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="0">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="0">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="0">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="0">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="0">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="0">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="0">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="0">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="0">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="0">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="0">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="0">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="0">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="0">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="0">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="0">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="0">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="0">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="0">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="0">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="0">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="0">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="0">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="0">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="0">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="0">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="0">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="0">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="0">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="0">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="0">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="0">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="0">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="0">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="0">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="0">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="0">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="0">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="0">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="0">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="0">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="0">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="0">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="0">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="0">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="0">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="0">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="0">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="0">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="0">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="0">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="0">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="0">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="0">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="0">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="0">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="0">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="0">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="0">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="0">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="0">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="0">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="0">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="0">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="0">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="0">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="0">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="0">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="0">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="0">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="0">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="0">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="0">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="0">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="0">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="0">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="0">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="0">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="0">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="0">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="0">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="0">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="0">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="0">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="0">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="0">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="0">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="0">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="0">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="0">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="0">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="0">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="0">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="0">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="0">
+        <v>173</v>
+      </c>
+      <c r="FS1" s="0">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="0">
+        <v>175</v>
+      </c>
+      <c r="FU1" s="0">
+        <v>176</v>
+      </c>
+      <c r="FV1" s="0">
+        <v>177</v>
+      </c>
+      <c r="FW1" s="0">
+        <v>178</v>
+      </c>
+      <c r="FX1" s="0">
+        <v>179</v>
+      </c>
+      <c r="FY1" s="0">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="0">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="0">
+        <v>182</v>
+      </c>
+      <c r="GB1" s="0">
+        <v>183</v>
+      </c>
+      <c r="GC1" s="0">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="0">
+        <v>185</v>
+      </c>
+      <c r="GE1" s="0">
+        <v>186</v>
+      </c>
+      <c r="GF1" s="0">
+        <v>187</v>
+      </c>
+      <c r="GG1" s="0">
+        <v>188</v>
+      </c>
+      <c r="GH1" s="0">
+        <v>189</v>
+      </c>
+      <c r="GI1" s="0">
+        <v>190</v>
+      </c>
+      <c r="GJ1" s="0">
+        <v>191</v>
+      </c>
+      <c r="GK1" s="0">
+        <v>192</v>
+      </c>
+      <c r="GL1" s="0">
+        <v>193</v>
+      </c>
+      <c r="GM1" s="0">
+        <v>194</v>
+      </c>
+      <c r="GN1" s="0">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="0">
+        <v>196</v>
+      </c>
+      <c r="GP1" s="0">
+        <v>197</v>
+      </c>
+      <c r="GQ1" s="0">
+        <v>198</v>
+      </c>
+      <c r="GR1" s="0">
+        <v>199</v>
+      </c>
+      <c r="GS1" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:201">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:201">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:201">
+      <c r="A4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:201">
+      <c r="A5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
+    <hyperlink r:id="rId1" ref="B5"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1120,682 +1120,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="GQ1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="GW9" sqref="GW9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:8">
       <c r="A1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0">
-        <v>18</v>
-      </c>
-      <c r="T1" s="0">
-        <v>19</v>
-      </c>
-      <c r="U1" s="0">
-        <v>20</v>
-      </c>
-      <c r="V1" s="0">
-        <v>21</v>
-      </c>
-      <c r="W1" s="0">
-        <v>22</v>
-      </c>
-      <c r="X1" s="0">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="0">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="0">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="0">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="0">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="0">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="0">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="0">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0">
+      <c r="C2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0">
+      <c r="D2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0">
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="0">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="0">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="0">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="0">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="0">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="0">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="0">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="0">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="0">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0">
+      <c r="B3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="0">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="0">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="0">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="0">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="0">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="0">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="0">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="0">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="0">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="0">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="0">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="0">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="0">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="0">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="0">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="0">
-        <v>61</v>
-      </c>
-      <c r="BK1" s="0">
-        <v>62</v>
-      </c>
-      <c r="BL1" s="0">
-        <v>63</v>
-      </c>
-      <c r="BM1" s="0">
-        <v>64</v>
-      </c>
-      <c r="BN1" s="0">
-        <v>65</v>
-      </c>
-      <c r="BO1" s="0">
-        <v>66</v>
-      </c>
-      <c r="BP1" s="0">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="0">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="0">
-        <v>69</v>
-      </c>
-      <c r="BS1" s="0">
-        <v>70</v>
-      </c>
-      <c r="BT1" s="0">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="0">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="0">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="0">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="0">
-        <v>75</v>
-      </c>
-      <c r="BY1" s="0">
-        <v>76</v>
-      </c>
-      <c r="BZ1" s="0">
-        <v>77</v>
-      </c>
-      <c r="CA1" s="0">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="0">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="0">
-        <v>80</v>
-      </c>
-      <c r="CD1" s="0">
-        <v>81</v>
-      </c>
-      <c r="CE1" s="0">
-        <v>82</v>
-      </c>
-      <c r="CF1" s="0">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="0">
-        <v>84</v>
-      </c>
-      <c r="CH1" s="0">
-        <v>85</v>
-      </c>
-      <c r="CI1" s="0">
-        <v>86</v>
-      </c>
-      <c r="CJ1" s="0">
-        <v>87</v>
-      </c>
-      <c r="CK1" s="0">
-        <v>88</v>
-      </c>
-      <c r="CL1" s="0">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="0">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="0">
-        <v>91</v>
-      </c>
-      <c r="CO1" s="0">
-        <v>92</v>
-      </c>
-      <c r="CP1" s="0">
-        <v>93</v>
-      </c>
-      <c r="CQ1" s="0">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="0">
-        <v>95</v>
-      </c>
-      <c r="CS1" s="0">
-        <v>96</v>
-      </c>
-      <c r="CT1" s="0">
-        <v>97</v>
-      </c>
-      <c r="CU1" s="0">
-        <v>98</v>
-      </c>
-      <c r="CV1" s="0">
-        <v>99</v>
-      </c>
-      <c r="CW1" s="0">
-        <v>100</v>
-      </c>
-      <c r="CX1" s="0">
-        <v>101</v>
-      </c>
-      <c r="CY1" s="0">
-        <v>102</v>
-      </c>
-      <c r="CZ1" s="0">
-        <v>103</v>
-      </c>
-      <c r="DA1" s="0">
-        <v>104</v>
-      </c>
-      <c r="DB1" s="0">
-        <v>105</v>
-      </c>
-      <c r="DC1" s="0">
-        <v>106</v>
-      </c>
-      <c r="DD1" s="0">
-        <v>107</v>
-      </c>
-      <c r="DE1" s="0">
-        <v>108</v>
-      </c>
-      <c r="DF1" s="0">
-        <v>109</v>
-      </c>
-      <c r="DG1" s="0">
-        <v>110</v>
-      </c>
-      <c r="DH1" s="0">
-        <v>111</v>
-      </c>
-      <c r="DI1" s="0">
-        <v>112</v>
-      </c>
-      <c r="DJ1" s="0">
-        <v>113</v>
-      </c>
-      <c r="DK1" s="0">
-        <v>114</v>
-      </c>
-      <c r="DL1" s="0">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="0">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="0">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="0">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="0">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="0">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="0">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="0">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="0">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="0">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="0">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="0">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="0">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="0">
-        <v>128</v>
-      </c>
-      <c r="DZ1" s="0">
-        <v>129</v>
-      </c>
-      <c r="EA1" s="0">
-        <v>130</v>
-      </c>
-      <c r="EB1" s="0">
-        <v>131</v>
-      </c>
-      <c r="EC1" s="0">
-        <v>132</v>
-      </c>
-      <c r="ED1" s="0">
-        <v>133</v>
-      </c>
-      <c r="EE1" s="0">
-        <v>134</v>
-      </c>
-      <c r="EF1" s="0">
-        <v>135</v>
-      </c>
-      <c r="EG1" s="0">
-        <v>136</v>
-      </c>
-      <c r="EH1" s="0">
-        <v>137</v>
-      </c>
-      <c r="EI1" s="0">
-        <v>138</v>
-      </c>
-      <c r="EJ1" s="0">
-        <v>139</v>
-      </c>
-      <c r="EK1" s="0">
-        <v>140</v>
-      </c>
-      <c r="EL1" s="0">
-        <v>141</v>
-      </c>
-      <c r="EM1" s="0">
-        <v>142</v>
-      </c>
-      <c r="EN1" s="0">
-        <v>143</v>
-      </c>
-      <c r="EO1" s="0">
-        <v>144</v>
-      </c>
-      <c r="EP1" s="0">
-        <v>145</v>
-      </c>
-      <c r="EQ1" s="0">
-        <v>146</v>
-      </c>
-      <c r="ER1" s="0">
-        <v>147</v>
-      </c>
-      <c r="ES1" s="0">
-        <v>148</v>
-      </c>
-      <c r="ET1" s="0">
-        <v>149</v>
-      </c>
-      <c r="EU1" s="0">
-        <v>150</v>
-      </c>
-      <c r="EV1" s="0">
-        <v>151</v>
-      </c>
-      <c r="EW1" s="0">
-        <v>152</v>
-      </c>
-      <c r="EX1" s="0">
-        <v>153</v>
-      </c>
-      <c r="EY1" s="0">
-        <v>154</v>
-      </c>
-      <c r="EZ1" s="0">
-        <v>155</v>
-      </c>
-      <c r="FA1" s="0">
-        <v>156</v>
-      </c>
-      <c r="FB1" s="0">
-        <v>157</v>
-      </c>
-      <c r="FC1" s="0">
-        <v>158</v>
-      </c>
-      <c r="FD1" s="0">
-        <v>159</v>
-      </c>
-      <c r="FE1" s="0">
-        <v>160</v>
-      </c>
-      <c r="FF1" s="0">
-        <v>161</v>
-      </c>
-      <c r="FG1" s="0">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="0">
-        <v>163</v>
-      </c>
-      <c r="FI1" s="0">
-        <v>164</v>
-      </c>
-      <c r="FJ1" s="0">
-        <v>165</v>
-      </c>
-      <c r="FK1" s="0">
-        <v>166</v>
-      </c>
-      <c r="FL1" s="0">
-        <v>167</v>
-      </c>
-      <c r="FM1" s="0">
-        <v>168</v>
-      </c>
-      <c r="FN1" s="0">
-        <v>169</v>
-      </c>
-      <c r="FO1" s="0">
-        <v>170</v>
-      </c>
-      <c r="FP1" s="0">
-        <v>171</v>
-      </c>
-      <c r="FQ1" s="0">
-        <v>172</v>
-      </c>
-      <c r="FR1" s="0">
-        <v>173</v>
-      </c>
-      <c r="FS1" s="0">
-        <v>174</v>
-      </c>
-      <c r="FT1" s="0">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="0">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="0">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="0">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="0">
-        <v>179</v>
-      </c>
-      <c r="FY1" s="0">
-        <v>180</v>
-      </c>
-      <c r="FZ1" s="0">
-        <v>181</v>
-      </c>
-      <c r="GA1" s="0">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="0">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="0">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="0">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="0">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="0">
-        <v>187</v>
-      </c>
-      <c r="GG1" s="0">
-        <v>188</v>
-      </c>
-      <c r="GH1" s="0">
-        <v>189</v>
-      </c>
-      <c r="GI1" s="0">
-        <v>190</v>
-      </c>
-      <c r="GJ1" s="0">
-        <v>191</v>
-      </c>
-      <c r="GK1" s="0">
-        <v>192</v>
-      </c>
-      <c r="GL1" s="0">
-        <v>193</v>
-      </c>
-      <c r="GM1" s="0">
-        <v>194</v>
-      </c>
-      <c r="GN1" s="0">
-        <v>195</v>
-      </c>
-      <c r="GO1" s="0">
-        <v>196</v>
-      </c>
-      <c r="GP1" s="0">
-        <v>197</v>
-      </c>
-      <c r="GQ1" s="0">
-        <v>198</v>
-      </c>
-      <c r="GR1" s="0">
-        <v>199</v>
-      </c>
-      <c r="GS1" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:201">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:201">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:201">
-      <c r="A4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:201">
-      <c r="A5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B5"/>
+    <hyperlink r:id="rId1" ref="B4"/>
   </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
